--- a/Bitacoras Grupales.xlsx
+++ b/Bitacoras Grupales.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7B6228-1636-497E-B5A1-FE562359AFB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora Grupal" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Fecha</t>
   </si>
@@ -65,12 +66,45 @@
   </si>
   <si>
     <t>Aplazado</t>
+  </si>
+  <si>
+    <t>Modificacion de diagrama UML</t>
+  </si>
+  <si>
+    <t>2 hrs</t>
+  </si>
+  <si>
+    <t>Estudio de los programas</t>
+  </si>
+  <si>
+    <t>Instalacion de los programas</t>
+  </si>
+  <si>
+    <t>1 hrs</t>
+  </si>
+  <si>
+    <t>Se intento instalar los programas pero tuve algunos problemas para instalar el vuetify y electron</t>
+  </si>
+  <si>
+    <t>Estudio de como se instalaban los programas y algunas descargas de esta.</t>
+  </si>
+  <si>
+    <t>Se comenzo el diagrama desde cero, intentando mostrar la relacion que puede entre los entes que participarán de esta.</t>
+  </si>
+  <si>
+    <t>Nuevo intento de instalacion correcta</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>Instalacion de Linux para realizar la instalacion correcta de los programas puesto que en windows no me dejaba instalarlos.(electron y vuetify)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -156,6 +190,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,22 +473,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="39.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -465,7 +502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="59.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" ht="58.5" x14ac:dyDescent="0.25">
       <c r="C5" s="8">
         <v>43705</v>
       </c>
@@ -479,7 +516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C6" s="8">
         <v>43680</v>
       </c>
@@ -493,73 +530,73 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="3:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="3:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="3:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="3:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="3:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="3:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="3:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="3:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="3:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="3:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="3:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -571,22 +608,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C4:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -601,7 +638,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="3:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C5" s="6">
         <v>43710</v>
       </c>
@@ -616,7 +653,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <v>43711</v>
       </c>
@@ -631,7 +668,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="3:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C7" s="6">
         <v>43712</v>
       </c>
@@ -646,7 +683,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="3:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C8" s="6">
         <v>43715</v>
       </c>
@@ -661,70 +698,70 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="3:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="3:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="3:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="3:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="3:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="3:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="3:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="3:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="3:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="3:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -738,22 +775,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C4:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -767,85 +804,85 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -857,22 +894,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C4:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="149.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -886,85 +925,117 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C5" s="6">
+        <v>43710</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C6" s="6">
+        <v>43711</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C7" s="6">
+        <v>43712</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C8" s="6">
+        <v>43718</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -976,22 +1047,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C4:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1005,85 +1076,85 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="3:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
